--- a/MJ/프로젝트네이밍.xlsx
+++ b/MJ/프로젝트네이밍.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>트리플래너</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +78,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거기요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>여행의 민족</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>온트립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래블라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거기요(여행)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요(데이트앱), 여기요, 고기요(고기집앱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행의 정석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +122,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,17 +153,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,105 +470,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="56.58203125" customWidth="1"/>
+    <col min="2" max="2" width="46.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
